--- a/LHS180_t1.xlsx
+++ b/LHS180_t1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\★Research\RAM_prop_design\Codes\DataDriven_opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F41CB14-301C-4AB5-8CDB-635219752AC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E95ED8-D936-4896-80AA-CBE9C0E2A97C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{FB979F52-3AE9-4E4D-9D52-2B820EC9B796}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
   <si>
     <t>Gen</t>
   </si>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>ㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +595,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -623,8 +627,8 @@
       <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="11">
-        <v>1</v>
+      <c r="B3" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="11"/>
     </row>
@@ -642,7 +646,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="11">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="C5" s="11"/>
     </row>
